--- a/DEVELOPMENT/analysis/definitions/bridge/ADEPT_O1_BRIDGE_19Mayo25.xlsx
+++ b/DEVELOPMENT/analysis/definitions/bridge/ADEPT_O1_BRIDGE_19Mayo25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgamb\Documents\GitHub\ADEPT_obj1\DEVELOPMENT\analysis\definitions\bridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0782EA8-0061-4AF4-9F16-8015CF4EC10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94894432-206D-462E-9E0D-DA2BA39728AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2506CD93-0285-9E44-BBDD-A2C4E77A0341}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALG!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJ1'!$A$1:$K$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJ1'!$A$1:$K$181</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -2116,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA1CCF-AC46-4BBB-901E-A0CC50A7045D}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K181"/>
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>85</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>93</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>95</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>99</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>103</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>105</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>107</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>109</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>111</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>113</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>115</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>117</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>119</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>121</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>123</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>125</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>129</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>131</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>133</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>137</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>139</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>141</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>143</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>145</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>147</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>149</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>151</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>153</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>155</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>167</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>169</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>171</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>173</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>175</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>177</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>179</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>181</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>183</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>187</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>189</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>191</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>193</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>195</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>197</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>199</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>203</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>205</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>207</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>209</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>211</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>213</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>215</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>217</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>219</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>221</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>223</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>225</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>227</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>229</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>231</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>233</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>235</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>237</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>239</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>241</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>245</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>247</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>249</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>251</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>253</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>255</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>257</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>259</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>261</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>263</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>265</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>267</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>269</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>271</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>273</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>275</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>281</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>283</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>287</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>289</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>293</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>85</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>121</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>343</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>345</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>355</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>357</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>359</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="18" t="s">
         <v>361</v>
       </c>
@@ -8383,7 +8383,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K181" xr:uid="{E0FDDF39-709C-C14C-B461-AFB2AA297754}"/>
+  <autoFilter ref="A1:K181" xr:uid="{E0FDDF39-709C-C14C-B461-AFB2AA297754}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14303,6 +14309,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70fbc179-56b2-4609-9c4f-f2d8c8a53629">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a1800618-4cc3-44a3-b2ff-4430b6f3c67d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D26C639087F6D45ADFC3EC21F1D3A6E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="878129f2fcc6ee12aa7a3f6919ba358e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70fbc179-56b2-4609-9c4f-f2d8c8a53629" xmlns:ns3="a1800618-4cc3-44a3-b2ff-4430b6f3c67d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f17d72d02eee5b7172274046075b6715" ns2:_="" ns3:_="">
     <xsd:import namespace="70fbc179-56b2-4609-9c4f-f2d8c8a53629"/>
@@ -14503,27 +14529,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70fbc179-56b2-4609-9c4f-f2d8c8a53629">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a1800618-4cc3-44a3-b2ff-4430b6f3c67d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B141F6-1B65-48D6-AC6D-6863CE810BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794DD23A-82BD-4D35-84D2-4A4CA4219C4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="70fbc179-56b2-4609-9c4f-f2d8c8a53629"/>
+    <ds:schemaRef ds:uri="a1800618-4cc3-44a3-b2ff-4430b6f3c67d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{461DAC6E-9E86-4423-A9B0-363BFCF6664C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14540,23 +14565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794DD23A-82BD-4D35-84D2-4A4CA4219C4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="70fbc179-56b2-4609-9c4f-f2d8c8a53629"/>
-    <ds:schemaRef ds:uri="a1800618-4cc3-44a3-b2ff-4430b6f3c67d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B141F6-1B65-48D6-AC6D-6863CE810BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DEVELOPMENT/analysis/definitions/bridge/ADEPT_O1_BRIDGE_19Mayo25.xlsx
+++ b/DEVELOPMENT/analysis/definitions/bridge/ADEPT_O1_BRIDGE_19Mayo25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgamb\Documents\GitHub\ADEPT_obj1\DEVELOPMENT\analysis\definitions\bridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94894432-206D-462E-9E0D-DA2BA39728AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C1D37-499F-41F0-ABD6-A9AAB9DABC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2506CD93-0285-9E44-BBDD-A2C4E77A0341}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALG!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJ1'!$A$1:$K$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBJ1'!$A$1:$K$171</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="536">
   <si>
     <t>Varname</t>
   </si>
@@ -1178,187 +1178,367 @@
     <t>ATC codes</t>
   </si>
   <si>
+    <t>N05BA12</t>
+  </si>
+  <si>
+    <t>N03AG03</t>
+  </si>
+  <si>
+    <t>N06AA09</t>
+  </si>
+  <si>
+    <t>Arippiprazole</t>
+  </si>
+  <si>
+    <t>N05AX12</t>
+  </si>
+  <si>
+    <t>N05AH05</t>
+  </si>
+  <si>
+    <t>C07AB03</t>
+  </si>
+  <si>
+    <t>N02CD07</t>
+  </si>
+  <si>
+    <t>Barbexaclone</t>
+  </si>
+  <si>
+    <t>N03AA04</t>
+  </si>
+  <si>
+    <t>Beclamide</t>
+  </si>
+  <si>
+    <t>N03AX30</t>
+  </si>
+  <si>
+    <t>Botulinumtoxin</t>
+  </si>
+  <si>
+    <t>M03AX01</t>
+  </si>
+  <si>
+    <t>N03AX23</t>
+  </si>
+  <si>
+    <t>N06AX12</t>
+  </si>
+  <si>
+    <t>N05BE01</t>
+  </si>
+  <si>
+    <t>C09CA06</t>
+  </si>
+  <si>
+    <t>Cannabidoiol</t>
+  </si>
+  <si>
+    <t>N03AX24</t>
+  </si>
+  <si>
+    <t>M02AB01</t>
+  </si>
+  <si>
+    <t>N03AF01</t>
+  </si>
+  <si>
+    <t>Carisbamate</t>
+  </si>
+  <si>
+    <t>N03AX19</t>
+  </si>
+  <si>
+    <t>Cenobamate</t>
+  </si>
+  <si>
+    <t>N03AX25</t>
+  </si>
+  <si>
+    <t>N06AB04</t>
+  </si>
+  <si>
+    <t>N05BA09</t>
+  </si>
+  <si>
+    <t>N03AE01</t>
+  </si>
+  <si>
     <t>C01, C03, C04, C05, C07, C08, C09, B01AC, C02, C10</t>
   </si>
   <si>
-    <t>C07AB03</t>
-  </si>
-  <si>
-    <t>Barbexaclone</t>
-  </si>
-  <si>
-    <t>N03AA04</t>
+    <t>Chronic respiratory diseases</t>
+  </si>
+  <si>
+    <t>R03, R07A</t>
+  </si>
+  <si>
+    <t>N06AA01</t>
+  </si>
+  <si>
+    <t>N06AX23</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>N05BA01</t>
+  </si>
+  <si>
+    <t>N03AB03</t>
+  </si>
+  <si>
+    <t>N06AA12</t>
+  </si>
+  <si>
+    <t>Duloxetin</t>
+  </si>
+  <si>
+    <t>N06AX21</t>
+  </si>
+  <si>
+    <t>N02CD05</t>
+  </si>
+  <si>
+    <t>N02CD01</t>
+  </si>
+  <si>
+    <t>N06AB10</t>
+  </si>
+  <si>
+    <t>N03AF04</t>
+  </si>
+  <si>
+    <t>Ethadione</t>
+  </si>
+  <si>
+    <t>N03AC03</t>
+  </si>
+  <si>
+    <t>N03AD01</t>
+  </si>
+  <si>
+    <t>N03AD51</t>
+  </si>
+  <si>
+    <t>N03AB01</t>
+  </si>
+  <si>
+    <t>N03AX10</t>
+  </si>
+  <si>
+    <t>N03AX26</t>
+  </si>
+  <si>
+    <t>N07CA03</t>
+  </si>
+  <si>
+    <t>N06AB03</t>
+  </si>
+  <si>
+    <t>N06CA03</t>
+  </si>
+  <si>
+    <t>N05AB02</t>
+  </si>
+  <si>
+    <t>N06AB08</t>
+  </si>
+  <si>
+    <t>Fosphenytoin</t>
+  </si>
+  <si>
+    <t>N03AB05</t>
+  </si>
+  <si>
+    <t>N02CD03</t>
+  </si>
+  <si>
+    <t>DP_FRENAMEZUMAB</t>
+  </si>
+  <si>
+    <t>Frenamezumab</t>
+  </si>
+  <si>
+    <t>Gabapentin</t>
+  </si>
+  <si>
+    <t>N02BF01</t>
+  </si>
+  <si>
+    <t>N02BF</t>
+  </si>
+  <si>
+    <t>N02CD02</t>
+  </si>
+  <si>
+    <t>Ganaxolone</t>
+  </si>
+  <si>
+    <t>N03AX27</t>
+  </si>
+  <si>
+    <t>N05AD01</t>
+  </si>
+  <si>
+    <t>N05BB01</t>
+  </si>
+  <si>
+    <t>N06AA02</t>
+  </si>
+  <si>
+    <t>B03A</t>
+  </si>
+  <si>
+    <t>N03AX18</t>
+  </si>
+  <si>
+    <t>N03AX09</t>
+  </si>
+  <si>
+    <t>N03AX14</t>
+  </si>
+  <si>
+    <t>N04BA02</t>
+  </si>
+  <si>
+    <t>N06AX28</t>
+  </si>
+  <si>
+    <t>Lidocaine topical</t>
+  </si>
+  <si>
+    <t>D04AB01</t>
+  </si>
+  <si>
+    <t>C09AA03</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>N05AN, N05AN01, D11AX04</t>
+  </si>
+  <si>
+    <t>N05BA06</t>
+  </si>
+  <si>
+    <t>Lurosidone</t>
+  </si>
+  <si>
+    <t>N05AE05</t>
+  </si>
+  <si>
+    <t>N06AF</t>
+  </si>
+  <si>
+    <t>N06AA21</t>
+  </si>
+  <si>
+    <t>N03AB04, N03AB54</t>
+  </si>
+  <si>
+    <t>N03AD03</t>
+  </si>
+  <si>
+    <t>Metharbital</t>
+  </si>
+  <si>
+    <t>N03AA30</t>
+  </si>
+  <si>
+    <t>N03AA01</t>
+  </si>
+  <si>
+    <t>C07AB02</t>
+  </si>
+  <si>
+    <t>N05CD08</t>
+  </si>
+  <si>
+    <t>N06AX17</t>
+  </si>
+  <si>
+    <t>Mirogabalin</t>
+  </si>
+  <si>
+    <t>N02BF03</t>
+  </si>
+  <si>
+    <t>N06AX11</t>
+  </si>
+  <si>
+    <t>N06AG02</t>
+  </si>
+  <si>
+    <t>C07AA12</t>
+  </si>
+  <si>
+    <t>M01AE02</t>
+  </si>
+  <si>
+    <t>N06AX06</t>
+  </si>
+  <si>
+    <t>C08CA05</t>
+  </si>
+  <si>
+    <t>C08CA06</t>
+  </si>
+  <si>
+    <t>N06AA10</t>
+  </si>
+  <si>
+    <t>NSAID topical</t>
+  </si>
+  <si>
+    <t>M02AA</t>
+  </si>
+  <si>
+    <t>N05AH03</t>
+  </si>
+  <si>
+    <t>N02A</t>
+  </si>
+  <si>
+    <t>N03AF02</t>
+  </si>
+  <si>
+    <t>N05AX13</t>
+  </si>
+  <si>
+    <t>N03AC01</t>
+  </si>
+  <si>
+    <t>N06AB05</t>
+  </si>
+  <si>
+    <t>N03AX22</t>
+  </si>
+  <si>
+    <t>Phenacimide</t>
+  </si>
+  <si>
+    <t>N03AX07</t>
+  </si>
+  <si>
+    <t>N03AX13</t>
+  </si>
+  <si>
+    <t>N03AA02</t>
+  </si>
+  <si>
+    <t>Phensuximide</t>
+  </si>
+  <si>
+    <t>N03AD02</t>
   </si>
   <si>
     <t>N03AB02, N03AB52</t>
   </si>
   <si>
-    <t>N03AX23</t>
-  </si>
-  <si>
-    <t>Beclamide</t>
-  </si>
-  <si>
-    <t>N03AX30</t>
-  </si>
-  <si>
-    <t>Lithium</t>
-  </si>
-  <si>
-    <t>N05AN, N05AN01, D11AX04</t>
-  </si>
-  <si>
-    <t>Arippiprazole</t>
-  </si>
-  <si>
-    <t>N05AX12</t>
-  </si>
-  <si>
-    <t>N05BA12</t>
-  </si>
-  <si>
-    <t>N06AA09</t>
-  </si>
-  <si>
-    <t>Chronic respiratory diseases</t>
-  </si>
-  <si>
-    <t>R03, R07A</t>
-  </si>
-  <si>
-    <t>N03AG03</t>
-  </si>
-  <si>
-    <t>N05BE01</t>
-  </si>
-  <si>
-    <t>Cannabidoiol</t>
-  </si>
-  <si>
-    <t>N03AX24</t>
-  </si>
-  <si>
-    <t>N03AF01</t>
-  </si>
-  <si>
-    <t>Carisbamate</t>
-  </si>
-  <si>
-    <t>N03AX19</t>
-  </si>
-  <si>
-    <t>Cenobamate</t>
-  </si>
-  <si>
-    <t>N03AX25</t>
-  </si>
-  <si>
-    <t>N06AB04</t>
-  </si>
-  <si>
-    <t>N05BA09</t>
-  </si>
-  <si>
-    <t>N03AE01</t>
-  </si>
-  <si>
-    <t>N06AA01</t>
-  </si>
-  <si>
-    <t>Diazepam</t>
-  </si>
-  <si>
-    <t>N05BA01</t>
-  </si>
-  <si>
-    <t>N06AA12</t>
-  </si>
-  <si>
-    <t>Duloxetin</t>
-  </si>
-  <si>
-    <t>N06AX21</t>
-  </si>
-  <si>
-    <t>N02CD01</t>
-  </si>
-  <si>
-    <t>N06AB10</t>
-  </si>
-  <si>
-    <t>N03AF04</t>
-  </si>
-  <si>
-    <t>Ethadione</t>
-  </si>
-  <si>
-    <t>N03AC03</t>
-  </si>
-  <si>
-    <t>N03AD01</t>
-  </si>
-  <si>
-    <t>N03AD51</t>
-  </si>
-  <si>
-    <t>N03AB01</t>
-  </si>
-  <si>
-    <t>N03AX10</t>
-  </si>
-  <si>
-    <t>N03AX26</t>
-  </si>
-  <si>
-    <t>N07CA03</t>
-  </si>
-  <si>
-    <t>N06AB08</t>
-  </si>
-  <si>
-    <t>N06AB03</t>
-  </si>
-  <si>
-    <t>N06CA03</t>
-  </si>
-  <si>
-    <t>N05AB02</t>
-  </si>
-  <si>
-    <t>Fosphenytoin</t>
-  </si>
-  <si>
-    <t>N03AB05</t>
-  </si>
-  <si>
-    <t>N02CD03</t>
-  </si>
-  <si>
-    <t>Gabapentin</t>
-  </si>
-  <si>
-    <t>N02BF01</t>
-  </si>
-  <si>
-    <t>N02CD02</t>
-  </si>
-  <si>
-    <t>Ganaxolone</t>
-  </si>
-  <si>
-    <t>N03AX27</t>
-  </si>
-  <si>
-    <t>N05AD01</t>
-  </si>
-  <si>
-    <t>N05BB01</t>
-  </si>
-  <si>
-    <t>Mirogabalin</t>
-  </si>
-  <si>
-    <t>N02BF03</t>
+    <t>N02CX01</t>
   </si>
   <si>
     <t>Pregabalin</t>
@@ -1367,144 +1547,57 @@
     <t>N02BF02</t>
   </si>
   <si>
-    <t>N02BF</t>
-  </si>
-  <si>
-    <t>C07AB02</t>
+    <t>N03AA03</t>
+  </si>
+  <si>
+    <t>N03AG05</t>
   </si>
   <si>
     <t>C07AA05</t>
   </si>
   <si>
+    <t>N05AH04</t>
+  </si>
+  <si>
+    <t>N03AX21</t>
+  </si>
+  <si>
+    <t>N02CD06</t>
+  </si>
+  <si>
+    <t>N05AX08</t>
+  </si>
+  <si>
+    <t>N03AF03</t>
+  </si>
+  <si>
+    <t>N06AB06</t>
+  </si>
+  <si>
+    <t>C07AA07</t>
+  </si>
+  <si>
+    <t>N03AX17</t>
+  </si>
+  <si>
+    <t>N03AX03</t>
+  </si>
+  <si>
+    <t>N06AA</t>
+  </si>
+  <si>
+    <t>N03AG06</t>
+  </si>
+  <si>
     <t>C07AA06</t>
   </si>
   <si>
-    <t>C07AA12</t>
-  </si>
-  <si>
-    <t>N06AX11</t>
-  </si>
-  <si>
-    <t>N06AA10</t>
-  </si>
-  <si>
-    <t>N05AH03</t>
-  </si>
-  <si>
-    <t>N03AX18</t>
-  </si>
-  <si>
-    <t>N03AX09</t>
-  </si>
-  <si>
-    <t>N03AX14</t>
-  </si>
-  <si>
-    <t>N06AA21</t>
-  </si>
-  <si>
-    <t>N03AB04, N03AB54</t>
-  </si>
-  <si>
-    <t>N06AA02</t>
-  </si>
-  <si>
-    <t>N05BA06</t>
-  </si>
-  <si>
-    <t>N03AD03</t>
-  </si>
-  <si>
-    <t>Metharbital</t>
-  </si>
-  <si>
-    <t>N03AA30</t>
-  </si>
-  <si>
-    <t>N03AA01</t>
-  </si>
-  <si>
-    <t>N03AF02</t>
-  </si>
-  <si>
-    <t>N05AX13</t>
-  </si>
-  <si>
-    <t>N03AC01</t>
-  </si>
-  <si>
-    <t>N06AB05</t>
-  </si>
-  <si>
-    <t>N03AX22</t>
-  </si>
-  <si>
-    <t>Phenacimide</t>
-  </si>
-  <si>
-    <t>N03AX07</t>
-  </si>
-  <si>
-    <t>N03AX13</t>
-  </si>
-  <si>
-    <t>Phensuximide</t>
-  </si>
-  <si>
-    <t>N03AD02</t>
-  </si>
-  <si>
-    <t>N02CX01</t>
-  </si>
-  <si>
-    <t>N03AA03</t>
-  </si>
-  <si>
-    <t>N03AG05</t>
-  </si>
-  <si>
-    <t>N05AH04</t>
-  </si>
-  <si>
-    <t>N05CD08</t>
-  </si>
-  <si>
-    <t>N02A</t>
-  </si>
-  <si>
-    <t>N03AA02</t>
-  </si>
-  <si>
-    <t>N03AX21</t>
-  </si>
-  <si>
-    <t>N02CD06</t>
-  </si>
-  <si>
-    <t>N05AX08</t>
-  </si>
-  <si>
-    <t>N03AF03</t>
-  </si>
-  <si>
-    <t>N06AB06</t>
-  </si>
-  <si>
-    <t>C07AA07</t>
-  </si>
-  <si>
-    <t>N03AX17</t>
-  </si>
-  <si>
-    <t>N03AX03</t>
-  </si>
-  <si>
-    <t>N03AG06</t>
-  </si>
-  <si>
     <t>N03AX11</t>
   </si>
   <si>
+    <t>N06AX05</t>
+  </si>
+  <si>
     <t>N03AC02</t>
   </si>
   <si>
@@ -1517,118 +1610,25 @@
     <t>N06AX16</t>
   </si>
   <si>
+    <t>C08DA01</t>
+  </si>
+  <si>
     <t>N03AG04</t>
   </si>
   <si>
+    <t>N06AX24</t>
+  </si>
+  <si>
+    <t>N06AX26</t>
+  </si>
+  <si>
     <t>N05CF02</t>
   </si>
   <si>
     <t>N03AX15</t>
   </si>
   <si>
-    <t>DP_FRENAMEZUMAB</t>
-  </si>
-  <si>
-    <t>Frenamezumab</t>
-  </si>
-  <si>
-    <t>N02CD05</t>
-  </si>
-  <si>
-    <t>N02CD07</t>
-  </si>
-  <si>
-    <t>M01AE02</t>
-  </si>
-  <si>
-    <t>C08CA05</t>
-  </si>
-  <si>
-    <t>C08DA01</t>
-  </si>
-  <si>
-    <t>C08CA06</t>
-  </si>
-  <si>
-    <t>C09AA03</t>
-  </si>
-  <si>
-    <t>C09CA06</t>
-  </si>
-  <si>
-    <t>N05AH05</t>
-  </si>
-  <si>
-    <t>Lurosidone</t>
-  </si>
-  <si>
-    <t>N05AE05</t>
-  </si>
-  <si>
-    <t>N06AX17</t>
-  </si>
-  <si>
-    <t>Botulinumtoxin</t>
-  </si>
-  <si>
-    <t>M03AX01</t>
-  </si>
-  <si>
-    <t>NSAID topical</t>
-  </si>
-  <si>
-    <t>M02AA</t>
-  </si>
-  <si>
-    <t>M02AB01</t>
-  </si>
-  <si>
-    <t>Lidocaine topical</t>
-  </si>
-  <si>
-    <t>D04AB01</t>
-  </si>
-  <si>
-    <t>B03A</t>
-  </si>
-  <si>
-    <t>N04BA02</t>
-  </si>
-  <si>
-    <t>N06AX23</t>
-  </si>
-  <si>
-    <t>N06AX28</t>
-  </si>
-  <si>
-    <t>N06AX12</t>
-  </si>
-  <si>
-    <t>N06AX06</t>
-  </si>
-  <si>
-    <t>N06AX05</t>
-  </si>
-  <si>
-    <t>N06AX24</t>
-  </si>
-  <si>
-    <t>N06AX26</t>
-  </si>
-  <si>
-    <t>N06AF</t>
-  </si>
-  <si>
-    <t>N06AG02</t>
-  </si>
-  <si>
-    <t>N03AB03</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N06AA</t>
+    <t>N06AF01</t>
   </si>
   <si>
     <t>exposure</t>
@@ -1656,7 +1656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1743,6 +1743,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1770,7 +1775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1802,6 +1807,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2121,9 +2127,9 @@
   </sheetPr>
   <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2245,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>93</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>95</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>99</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>103</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>113</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>117</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -4125,7 +4131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>119</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -4145,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -4195,7 +4201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>123</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="5" t="b">
         <v>0</v>
@@ -4253,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="5" t="b">
         <v>1</v>
@@ -4271,7 +4277,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="5" t="b">
         <v>0</v>
@@ -4283,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="5" t="b">
         <v>0</v>
@@ -4576,7 +4582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>145</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>147</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>149</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>155</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>169</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>175</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -5276,7 +5282,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>185</v>
       </c>
@@ -5376,7 +5382,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>191</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -5444,7 +5450,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>195</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>201</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>205</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>207</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>209</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>211</v>
       </c>
@@ -5759,7 +5765,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>213</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>215</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>219</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -5899,7 +5905,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>221</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>223</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>237</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6454,7 +6460,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>253</v>
       </c>
@@ -6489,7 +6495,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>255</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>257</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>259</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>261</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>263</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>265</v>
       </c>
@@ -6734,7 +6740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>269</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>273</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -7659,7 +7665,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -8224,7 +8230,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>355</v>
       </c>
@@ -8289,7 +8295,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>357</v>
       </c>
@@ -8318,7 +8324,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>359</v>
       </c>
@@ -8384,7 +8390,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K181" xr:uid="{E0FDDF39-709C-C14C-B461-AFB2AA297754}">
-    <filterColumn colId="5">
+    <filterColumn colId="2">
       <filters>
         <filter val="TRUE"/>
       </filters>
@@ -8401,8 +8407,8 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="K100" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8866,10 +8872,10 @@
         <v>372</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>125</v>
+        <v>229</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -8892,10 +8898,10 @@
         <v>372</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>119</v>
+        <v>229</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -8917,11 +8923,12 @@
       <c r="A20" t="s">
         <v>372</v>
       </c>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -8943,11 +8950,12 @@
       <c r="A21" t="s">
         <v>372</v>
       </c>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>231</v>
+        <v>351</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -8970,10 +8978,10 @@
         <v>372</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>233</v>
+        <v>293</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -8995,12 +9003,11 @@
       <c r="A23" t="s">
         <v>372</v>
       </c>
-      <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -9022,12 +9029,11 @@
       <c r="A24" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="4"/>
       <c r="C24" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -9050,10 +9056,10 @@
         <v>372</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -9076,10 +9082,10 @@
         <v>372</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -9105,7 +9111,7 @@
         <v>311</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -9131,7 +9137,7 @@
         <v>311</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -9157,7 +9163,7 @@
         <v>311</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -9183,7 +9189,7 @@
         <v>311</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -9209,7 +9215,7 @@
         <v>311</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -9235,7 +9241,7 @@
         <v>311</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -9261,7 +9267,7 @@
         <v>311</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -9287,7 +9293,7 @@
         <v>311</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -9313,7 +9319,7 @@
         <v>311</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -9339,7 +9345,7 @@
         <v>311</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -9365,7 +9371,7 @@
         <v>311</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9391,7 +9397,7 @@
         <v>311</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -9417,7 +9423,7 @@
         <v>311</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -9436,29 +9442,11 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>372</v>
-      </c>
       <c r="C40" t="s">
         <v>311</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>373</v>
-      </c>
-      <c r="H40" t="s">
-        <v>374</v>
-      </c>
-      <c r="I40" t="s">
-        <v>374</v>
-      </c>
-      <c r="J40" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -9469,7 +9457,7 @@
         <v>311</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -9495,7 +9483,7 @@
         <v>311</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -9514,11 +9502,29 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>372</v>
+      </c>
       <c r="C43" t="s">
         <v>311</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>373</v>
+      </c>
+      <c r="H43" t="s">
+        <v>374</v>
+      </c>
+      <c r="I43" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -9529,7 +9535,7 @@
         <v>311</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -9552,10 +9558,10 @@
         <v>372</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -9578,10 +9584,10 @@
         <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -9604,10 +9610,10 @@
         <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -9633,7 +9639,7 @@
         <v>317</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -9659,7 +9665,7 @@
         <v>317</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -9685,7 +9691,7 @@
         <v>317</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -9711,7 +9717,7 @@
         <v>317</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -9737,7 +9743,7 @@
         <v>317</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -9760,10 +9766,10 @@
         <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -9786,10 +9792,10 @@
         <v>372</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -9812,10 +9818,10 @@
         <v>372</v>
       </c>
       <c r="C55" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9841,7 +9847,7 @@
         <v>319</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -9867,7 +9873,7 @@
         <v>319</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -9893,7 +9899,7 @@
         <v>319</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -9919,7 +9925,7 @@
         <v>319</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -9945,7 +9951,7 @@
         <v>319</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -9971,7 +9977,7 @@
         <v>319</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -9997,7 +10003,7 @@
         <v>319</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -10023,7 +10029,7 @@
         <v>319</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -10049,7 +10055,7 @@
         <v>319</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -10072,10 +10078,10 @@
         <v>372</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -10098,10 +10104,10 @@
         <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -10124,10 +10130,10 @@
         <v>372</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -10153,7 +10159,7 @@
         <v>321</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -10179,7 +10185,7 @@
         <v>321</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -10205,7 +10211,7 @@
         <v>321</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -10231,7 +10237,7 @@
         <v>321</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -10254,10 +10260,10 @@
         <v>372</v>
       </c>
       <c r="C72" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -10280,10 +10286,10 @@
         <v>372</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -10306,10 +10312,10 @@
         <v>372</v>
       </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -10332,10 +10338,10 @@
         <v>372</v>
       </c>
       <c r="C75" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -10361,7 +10367,7 @@
         <v>185</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -10387,7 +10393,7 @@
         <v>185</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -10413,7 +10419,7 @@
         <v>185</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -10439,7 +10445,7 @@
         <v>185</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -10465,7 +10471,7 @@
         <v>185</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -10491,7 +10497,7 @@
         <v>185</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -10517,7 +10523,7 @@
         <v>185</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -10543,7 +10549,7 @@
         <v>185</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -10569,7 +10575,7 @@
         <v>185</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -10595,7 +10601,7 @@
         <v>185</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -10621,7 +10627,7 @@
         <v>185</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -10644,10 +10650,10 @@
         <v>372</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -10670,10 +10676,10 @@
         <v>372</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -10696,10 +10702,10 @@
         <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -10725,7 +10731,7 @@
         <v>327</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -10748,10 +10754,10 @@
         <v>372</v>
       </c>
       <c r="C91" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -10774,10 +10780,10 @@
         <v>372</v>
       </c>
       <c r="C92" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -10800,10 +10806,10 @@
         <v>372</v>
       </c>
       <c r="C93" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -10829,7 +10835,7 @@
         <v>337</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -10855,7 +10861,7 @@
         <v>337</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -10881,7 +10887,7 @@
         <v>337</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -10907,7 +10913,7 @@
         <v>337</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -10933,7 +10939,7 @@
         <v>337</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -10959,7 +10965,7 @@
         <v>337</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -10985,7 +10991,7 @@
         <v>337</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -11011,7 +11017,7 @@
         <v>337</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -11037,7 +11043,7 @@
         <v>337</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -11063,7 +11069,7 @@
         <v>337</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -11089,7 +11095,7 @@
         <v>337</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -11115,7 +11121,7 @@
         <v>337</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -11141,7 +11147,7 @@
         <v>337</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -11167,7 +11173,7 @@
         <v>337</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>177</v>
+        <v>339</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -11193,7 +11199,7 @@
         <v>337</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -11219,7 +11225,7 @@
         <v>337</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -11245,7 +11251,7 @@
         <v>337</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -11271,7 +11277,7 @@
         <v>337</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -11297,7 +11303,7 @@
         <v>337</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -11320,10 +11326,10 @@
         <v>372</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -11346,10 +11352,10 @@
         <v>372</v>
       </c>
       <c r="C114" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -11372,10 +11378,10 @@
         <v>372</v>
       </c>
       <c r="C115" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -11401,7 +11407,7 @@
         <v>353</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -11427,7 +11433,7 @@
         <v>353</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -11453,7 +11459,7 @@
         <v>353</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -11476,10 +11482,10 @@
         <v>372</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -11502,10 +11508,10 @@
         <v>372</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -11528,10 +11534,10 @@
         <v>372</v>
       </c>
       <c r="C121" t="s">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -11557,7 +11563,7 @@
         <v>191</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -11582,8 +11588,8 @@
       <c r="C123" t="s">
         <v>191</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>69</v>
+      <c r="D123" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -11606,10 +11612,10 @@
         <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -11632,10 +11638,10 @@
         <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -11658,10 +11664,10 @@
         <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -11687,7 +11693,7 @@
         <v>357</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -11713,7 +11719,7 @@
         <v>357</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -11739,7 +11745,7 @@
         <v>357</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -11765,7 +11771,7 @@
         <v>357</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -11791,7 +11797,7 @@
         <v>357</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -11817,7 +11823,7 @@
         <v>357</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -11843,7 +11849,7 @@
         <v>357</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -11869,7 +11875,7 @@
         <v>357</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -11895,7 +11901,7 @@
         <v>357</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -11921,7 +11927,7 @@
         <v>357</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -11947,7 +11953,7 @@
         <v>357</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -11973,7 +11979,7 @@
         <v>357</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -11999,7 +12005,7 @@
         <v>357</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -12025,7 +12031,7 @@
         <v>357</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -12051,7 +12057,7 @@
         <v>357</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -12077,7 +12083,7 @@
         <v>357</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -12103,7 +12109,7 @@
         <v>357</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -12129,7 +12135,7 @@
         <v>357</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -12155,7 +12161,7 @@
         <v>357</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -12181,7 +12187,7 @@
         <v>357</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -12207,7 +12213,7 @@
         <v>357</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -12230,10 +12236,10 @@
         <v>372</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -12256,10 +12262,10 @@
         <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -12282,10 +12288,10 @@
         <v>372</v>
       </c>
       <c r="C150" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>355</v>
+        <v>63</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -12311,7 +12317,7 @@
         <v>359</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -12337,7 +12343,7 @@
         <v>359</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -12363,7 +12369,7 @@
         <v>359</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -12389,7 +12395,7 @@
         <v>359</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -12415,7 +12421,7 @@
         <v>359</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -12441,7 +12447,7 @@
         <v>359</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -12466,8 +12472,8 @@
       <c r="C157" t="s">
         <v>359</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>113</v>
+      <c r="D157" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -12493,7 +12499,7 @@
         <v>359</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -12519,7 +12525,7 @@
         <v>359</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -12544,8 +12550,8 @@
       <c r="C160" t="s">
         <v>359</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>147</v>
+      <c r="D160" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -12571,7 +12577,7 @@
         <v>359</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -12596,8 +12602,8 @@
       <c r="C162" t="s">
         <v>359</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>195</v>
+      <c r="D162" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -12623,7 +12629,7 @@
         <v>359</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -12649,7 +12655,7 @@
         <v>359</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -12674,8 +12680,8 @@
       <c r="C165" t="s">
         <v>359</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>237</v>
+      <c r="D165" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -12700,8 +12706,8 @@
       <c r="C166" t="s">
         <v>359</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>243</v>
+      <c r="D166" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -12727,7 +12733,7 @@
         <v>359</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -12753,7 +12759,7 @@
         <v>359</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -12772,85 +12778,31 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>372</v>
-      </c>
-      <c r="C169" t="s">
-        <v>359</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169" t="s">
-        <v>373</v>
-      </c>
-      <c r="H169" t="s">
-        <v>374</v>
-      </c>
-      <c r="I169" t="s">
-        <v>374</v>
-      </c>
-      <c r="J169" t="s">
-        <v>374</v>
+      <c r="C169" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>372</v>
-      </c>
-      <c r="C170" t="s">
-        <v>359</v>
+      <c r="C170" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170" t="s">
-        <v>373</v>
-      </c>
-      <c r="H170" t="s">
-        <v>374</v>
-      </c>
-      <c r="I170" t="s">
-        <v>374</v>
-      </c>
-      <c r="J170" t="s">
-        <v>374</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>372</v>
-      </c>
-      <c r="C171" t="s">
-        <v>359</v>
+      <c r="C171" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171" t="s">
-        <v>373</v>
-      </c>
-      <c r="H171" t="s">
-        <v>374</v>
-      </c>
-      <c r="I171" t="s">
-        <v>374</v>
-      </c>
-      <c r="J171" t="s">
-        <v>374</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J74" xr:uid="{69D84700-DED7-384E-8400-81ED0D9F0B97}"/>
+  <autoFilter ref="A1:J71" xr:uid="{69D84700-DED7-384E-8400-81ED0D9F0B97}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12862,8 +12814,8 @@
   </sheetPr>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:XFD128"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12886,21 +12838,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>379</v>
@@ -12908,21 +12860,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>216</v>
+        <v>381</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>382</v>
@@ -12930,10 +12882,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>383</v>
@@ -12941,54 +12893,54 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>7</v>
+        <v>388</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>14</v>
+        <v>390</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>391</v>
@@ -12996,24 +12948,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>392</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -13024,851 +12976,851 @@
         <v>32</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>397</v>
+        <v>310</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>400</v>
+        <v>326</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>402</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>405</v>
+        <v>66</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>406</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>407</v>
+        <v>70</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>409</v>
+        <v>59</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>411</v>
+        <v>233</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>87</v>
+        <v>329</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="C32" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="17" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="17" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>427</v>
+        <v>100</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>132</v>
+        <v>285</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>286</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>437</v>
+        <v>112</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>119</v>
+      <c r="A49" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>442</v>
+        <v>437</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>225</v>
+      <c r="A51" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>226</v>
+        <v>439</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>444</v>
+        <v>120</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>445</v>
+        <v>122</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>177</v>
+      <c r="A54" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>446</v>
+        <v>122</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>184</v>
+        <v>443</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>189</v>
+      <c r="A56" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>145</v>
+      <c r="A57" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>451</v>
+        <v>36</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>158</v>
+      <c r="A60" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
-        <v>159</v>
+      <c r="A61" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>155</v>
+      <c r="A63" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>455</v>
+        <v>40</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="15" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="17" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="17" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="17" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>206</v>
+        <v>157</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>465</v>
+        <v>160</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>469</v>
+        <v>466</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C75" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="15" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" s="17" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="17" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="15" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="17" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C82" s="17" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>479</v>
+        <v>334</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>480</v>
+        <v>302</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="17" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="15" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>257</v>
+      <c r="A90" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C90" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>260</v>
+      <c r="A91" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>486</v>
@@ -13876,21 +13828,21 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>263</v>
+      <c r="A93" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>488</v>
@@ -13898,263 +13850,263 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>267</v>
+      <c r="A95" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>270</v>
+        <v>491</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>412</v>
+        <v>495</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
-        <v>494</v>
+      <c r="A100" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>495</v>
+        <v>216</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>296</v>
+        <v>499</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>297</v>
+      <c r="A103" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>497</v>
+        <v>222</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>499</v>
+        <v>226</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>303</v>
+      <c r="A106" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>500</v>
+        <v>228</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>501</v>
+        <v>238</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>502</v>
+        <v>240</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>503</v>
+        <v>242</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>504</v>
+        <v>244</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>506</v>
+        <v>248</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>507</v>
+        <v>252</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>197</v>
+      <c r="A113" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>509</v>
+        <v>254</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>511</v>
+        <v>256</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>512</v>
+      <c r="A115" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B115" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C116" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>515</v>
@@ -14162,65 +14114,65 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>143</v>
+      <c r="A120" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C120" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C121" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="15" t="s">
-        <v>333</v>
+      <c r="A122" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C122" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>521</v>
@@ -14228,32 +14180,32 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="15" t="s">
-        <v>341</v>
+      <c r="A125" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>524</v>
@@ -14261,49 +14213,52 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B128" t="s">
-        <v>356</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="A128" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" t="s">
-        <v>126</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="A129" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="C130" t="s">
         <v>528</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C129">
+    <sortCondition ref="A2:A129"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14318,17 +14273,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70fbc179-56b2-4609-9c4f-f2d8c8a53629">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a1800618-4cc3-44a3-b2ff-4430b6f3c67d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D26C639087F6D45ADFC3EC21F1D3A6E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="878129f2fcc6ee12aa7a3f6919ba358e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70fbc179-56b2-4609-9c4f-f2d8c8a53629" xmlns:ns3="a1800618-4cc3-44a3-b2ff-4430b6f3c67d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f17d72d02eee5b7172274046075b6715" ns2:_="" ns3:_="">
     <xsd:import namespace="70fbc179-56b2-4609-9c4f-f2d8c8a53629"/>
@@ -14529,6 +14473,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="70fbc179-56b2-4609-9c4f-f2d8c8a53629">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a1800618-4cc3-44a3-b2ff-4430b6f3c67d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B141F6-1B65-48D6-AC6D-6863CE810BB1}">
   <ds:schemaRefs>
@@ -14538,17 +14493,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794DD23A-82BD-4D35-84D2-4A4CA4219C4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="70fbc179-56b2-4609-9c4f-f2d8c8a53629"/>
-    <ds:schemaRef ds:uri="a1800618-4cc3-44a3-b2ff-4430b6f3c67d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{461DAC6E-9E86-4423-A9B0-363BFCF6664C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14565,4 +14509,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794DD23A-82BD-4D35-84D2-4A4CA4219C4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="70fbc179-56b2-4609-9c4f-f2d8c8a53629"/>
+    <ds:schemaRef ds:uri="a1800618-4cc3-44a3-b2ff-4430b6f3c67d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>